--- a/BLEU/azure_output_sheet/azure_output_1.xlsx
+++ b/BLEU/azure_output_sheet/azure_output_1.xlsx
@@ -1,60 +1,139 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\extract_raw-data\BLEU\azure_output_sheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138A2E32-04E5-4018-8780-906F4352FE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2030" yWindow="3590" windowWidth="23570" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>本書主要內容是怙主 敦珠仁波切的一系列開示。這當中最早的乃紀錄於一九六二年，其餘大部分開示則是於一九七零年間分別在東、西方國家所講授。這些談話經由錄音、繕寫後，推測是在加德滿都以小量印行。在敦珠仁波切佛母敦珠．桑嫞．仁增．旺嫫的囑咐下，將其中一本交付蓮師翻譯小組以利後續翻譯。感恩佛母仁慈的允諾，讓西方讀者得以接觸這些甚妙法教。</t>
+  </si>
+  <si>
+    <t>The main part of this book consists of a series of discourses given by Kyabje Dudjom Rinpoche.1 One of them dates from as early as 1962, but on the whole, they were delivered during the 1970s, some in the East and some in the West. The talks were recorded, and were later transcribed and published in a small volume, probably in Kathmandu. A copy of this book was given to Padmakara with a request from Dudjom Rinpoche’s consort, Sangyum Rigdzin Wangmo, for it to be translated. Thus it is thanks to her, and with her gracious permission, that these wonderful teachings are being made available to Western readers.</t>
+  </si>
+  <si>
+    <t>The main content of this book is a series of teachings by Lord Dhondup Rinpoche. The earliest of these was recorded in 1962, while most of the remaining lectures were taught in East and West in 1970. These conversations were recorded and written and presumably printed in small quantities in Kathmandu. In Dundrup Rinpoche Buddha Dundrup. SANG Yan. REN Zeng. Under Wang's instructions, one of them was handed over to the Lianshi translation team for subsequent translation. Thanks to the Mother Buddha's kind promise, Western readers have been exposed to these wonderful teachings.</t>
+  </si>
+  <si>
+    <t>在朗達瑪滅法後所興起的其他三個藏傳佛教宗派，主要以推派特定領袖或高僧的方式建構組織。與此有別的寧瑪派，是早在佛教傳入西藏之際就已經創建的傳承，並且未形成單一化的實體組織。那些繁複的機構與複雜的行政系統，對寧瑪精神來說是相當陌生的。正如敦珠仁波切所言，如此的寧瑪傳統形成一種鬆散、去中心化的風格，並以六大寺和無數分支寺院的法教為根本，提供了豐富而多元的法教與實修，如此狀態至少維持到中國入侵之前。而後來災難降臨，寺廟被毀，對於能夠逃至印度的人們來說，為了保存法教傳統的完整性，認為必須提名一位領袖好讓顛沛四散的倖存者得以團結。這對寧瑪派來說是一個全新的挑戰，但顯然不是問題。而身為一位博學、具證量的上師，同時兼具「伏藏師」、寧瑪派法教毋庸置疑的權威，以及眾所公認為蓮花生大士真實示現之種種身分的敦珠仁波切，成為各方認定共舉的人選。他是普世景仰崇敬的對象，並由達賴喇嘛尊者認證為合適的寧瑪派領袖。</t>
+  </si>
+  <si>
+    <t>Unlike the other three schools of Tibetan Buddhism, which sprang up in the period following the persecution of King Langdarma and which are organized, in the main, around a particular leader or hierarch, the Nyingmapas, whose tradition goes back to the foundation of Buddhism in Tibet, did not form a single monolithic body. Elaborate institutions and complicated administration are somewhat foreign to the Nyingma spirit. The tradition evolved in a loose, uncentralized manner, producing a wide spectrum of teaching and practice, principally associated, as Dudjom Rinpoche says, with six great monasteries and their innumerable branch monasteries. This at least was the situation before the Chinese invasion. But then disaster struck; the monasteries were destroyed and those who were able escaped to India. As a means of preserving the integrity of the tradition, it was thought necessary to nominate a single leader around whom the scattered remnants could rally. This was a new departure for the Nyingmapas, and yet it posed no problem. As a master of immense learning and realization, as a tertön, as an unquestioned authority on the Nyingma teachings and especially the Great Perfection, and as the acknowledged representative of Guru Padmasambhava himself, Dudjom Rinpoche was the unanimous choice. He was the object of spontaneous and universal veneration, and was duly recognized by the Dalai Lama as the leader of the Nyingmapas.</t>
+  </si>
+  <si>
+    <t>The other three Tibetan Buddhist sects that emerged after the destruction of Randama mainly structured their organizations by appointing specific leaders or monks. The Nyingma school, on the other hand, was created as early as the introduction of Buddhism into Tibet and did not form a single entity. The complex institutions and complex administrative systems are quite foreign to the Nyingma spirit. As Dundup Rinpoche said, this Nyingma tradition developed a loose, decentralized style and provided a rich and diverse range of teachings and practices based on the teachings of the six great monasteries and countless branch monasteries, at least until the Chinese invasion. When disaster struck and the temple was destroyed, those who were able to flee to India felt that a leader must be nominated to preserve the integrity of the Buddhist tradition so that the scattered survivors could be united. This is a whole new challenge for the Nyingma school, but it is clearly not a problem. As a learned and proven guru, as well as the unquestioned authority of the "Fuzang Master", the Nyingma teachings, and the various identities recognized by the many as the true manifestations of Padmasambhava, Dundrup Rinpoche became a candidate for the common election. He is the object of universal admiration and reverence and has been certified by His Holiness the Dalai Lama as a suitable leader of the Nyingma sect.</t>
+  </si>
+  <si>
+    <t>對於西方剛開始修行的初學者來說，想當然只能間接而隱約瞥見敦珠仁波切的修證威德，以及他身為大圓滿上師之成就，這份成就是指，仁波切的諸多弟子本身同時也是大成就者。儘管有著謙遜和悠然自在的風度舉止，但凡是與他相處之人，都能立即感受到偉大上師的存在，和佛法的真正體現。如同我們常聽到很多上師和堪布所說的：「他，就是蓮花生大士。」</t>
+  </si>
+  <si>
+    <t>It was only indirectly, of course, that we Westerners, beginners in the practice, could vaguely glimpse the extent of his spiritual authority and his accomplishment as a master of the Great Perfection—the revered guru of many disciples who were themselves accomplished masters. But despite the humility and relaxed lightheartedness of Rinpoche’s bearing, no one, when with him, could be unaware of being in the presence of a very great master, an embodiment of the teachings. As we often heard from the mouths of lamas and khenpos alike, “He simply was Guru Rinpoche.”</t>
+  </si>
+  <si>
+    <t>For beginners just beginning their practice in the West, of course, one can only get an indirect glimpse of Dunddrup Rinpoche's practice of Weed, and his achievements as a great perfection guru, which means that many of Rinpoche's disciples are themselves great achievers. Despite his humble and leisurely demeanor, anyone who interacts with him immediately feels the presence of the great Guru and the true embodiment of the Dharma. As we often hear many Gurus and Khenpos say, "He is Master Padmasambhava."</t>
+  </si>
+  <si>
+    <t>敦珠仁波切除了孜孜不倦地為印度、尼波爾和不丹的藏人們保存與實修眾多法教外，更為人稱道的是他對西方與東方的「外國」弟子們所投注的充沛關注與慈悲。多年來，他不僅到過南亞與遠東地區的國家傳法，也曾造訪歐洲和美國。正如蓮花生大士在西藏的佛行事業，他依循著傳統的嚴格標準，在「偏遠蠻荒地區」奠立了佛法。最後，仁波切選擇法國的多荷冬做為永久的居所，且在一九八七年一月於許多神奇徵兆中圓寂，降下一股至今仍可親掬的加持清流。</t>
+  </si>
+  <si>
+    <t>All the more amazing then, that in addition to laboring tirelessly for the preservation and practice of the teachings among Tibetans in India, Nepal, and Bhutan, Dudjom Rinpoche took such a lively and compassionate interest in “foreign” disciples, both Eastern and Western. As the years passed, he traveled not only to the countries of South Asia and the Far East, but also to Europe and America. Like Guru Padmasambhava in Tibet, he established the Dharma in “distant barbarous regions,” and according to the exacting standards of an authentic tradition. Finally, it was in Dordogne, France, that he chose to reside on a permanent basis. There, in January 1987, he passed away amid many marvelous signs, letting fall a stream of blessings that is still palpable.</t>
+  </si>
+  <si>
+    <t>Dundrup Rinpoche has worked tirelessly to preserve and practice many teachings for Tibetans in India, Nepal and Bhutan, and is better known for his dedication and compassion to foreign disciples in the West and the East. Over the years, he has not only traveled to countries in South Asia and the Far East, but also visited Europe and the United States. Like Padmasambhava's Buddhist practice in Tibet, he followed the traditional strict standards and established the Dharma in remote and barren areas. In the end, Rinpoche chose Dohodon in France as his permanent residence, and passed away in January 1987 amid many miraculous signs, descending a stream of blessings that is still amiable to this day.</t>
+  </si>
+  <si>
+    <t>對西方人來說，敦珠仁波切儼然是位真正的慈父，但在必要時他絕不華美其詞，而是以必要且刻畫生動的話語，嚴正地指明要點。他親自體現了溫煦與仁慈，其存在是無盡的啟發之源、其著作具備了洞見與優雅。而正如我們希望能在此書傳達給讀者的，他的開示有著來自真實博達所展現的簡潔精鍊與直接，既可親又清晰易懂。就如在仁波切簡略自傳中所流露的，他是一位偉大謙遜之人。而仁波切在自身修持與佛行事業中，則將個人成就藏鋒於風趣幽默的面紗之後。</t>
+  </si>
+  <si>
+    <t>For us Westerners, he was indeed a loving father. And although, as occasion required, he did not mince his words, and could speak sternly and to the point in appropriately colorful and graphic language, he was the personification of gentle kindness. His presence was a source of endless inspiration; his writings, the pattern of clarity and elegance. His oral teachings, as we hope this book will show, had the simple, uncluttered directness of true mastery, so accessible and clear. He was nevertheless, and as his brief autobiography indicates, a person of great modesty. Matter-of-fact about his training and work, he concealed his personal attainments beneath a veil of playful humor.</t>
+  </si>
+  <si>
+    <t>To Westerners, Dundrup Rinpoche is a true father, but when necessary, he does not speak boldly, but solemnly points out the main points with necessary and vivid words. He personally embodies gentleness and benevolence, his existence is an endless source of inspiration, and his writings are insightful and elegant. And as we hope to convey to our readers in this book, his teachings are concise and direct from the real Boda, both amiable and clear to understand. As revealed in Rinpoche's brief autobiography, he was a great and humble man. In his own practice and Buddhist practice, Rinpoche hid his personal achievements behind a veil of humor.</t>
+  </si>
+  <si>
+    <t>對蓮師翻譯小組的成員來說，敦珠仁波切具有非比尋常的地位。他不僅在一九八零年於法國鹿吉哈爾成立個人的佛法中心，也在同一年於其親自創辦指導的香特鹿佛學中心加持首次舉辦的三年閉關，並給予許多灌頂和法要教學。</t>
+  </si>
+  <si>
+    <t>Dudjom Rinpoche holds a very special place for the members of the Padmakara Translation Group. Not only did he found his own teaching center at Laugeral, Dordogne, in 1980, but in the same year he gave his blessing to the first three-year retreat at Chanteloube, which he personally inaugurated and guided, giving many empowerments and essential teachings.</t>
+  </si>
+  <si>
+    <t>For the members of the Lotus Translation Team, Dundrup Rinpoche has an extraordinary position. Not only did he set up his own Dharma Center in Rangerihar, France, in 1980, but he also blessed the first three-year retreat at the Chanter Deer Buddhist Center he founded and directed in the same year, and gave many empowerments and teachings.</t>
+  </si>
+  <si>
+    <t>能參與這項翻譯是無上的榮幸，縱然成果鈍拙且未盡完美，仍願獻此綿薄之力以表達我們的深切感激。在原先開示的繕寫文稿當中，我們增加了西方讀者可能會有興趣的若干項目。書中還有一篇簡短自傳、兩首詩文以及大圓滿法教的簡短介紹。我們對於能夠加上最後這一篇特別感到欣喜，該篇短文是在請示怙主楚璽仁波切後翻譯而成，並在他的藹然允諾下收錄書中。</t>
+  </si>
+  <si>
+    <t>Working on this translation has been a great privilege and it is offered as a humble gesture of deep gratitude, however clumsy and imperfect. To the oral teachings contained in the original collection of transcripts, we have added a number of items that will perhaps be of interest to Western readers. These are a short autobiography, two poems, and a brief introduction to the Great Perfection. We are especially pleased to include this last item, which was translated in consultation with Kyabje Trulshik Rinpoche. It is included with his gracious permission.</t>
+  </si>
+  <si>
+    <t>It is a great privilege to participate in this translation, and even though the results are sluggish and imperfect, we would like to express our deep gratitude for this modest effort. In our original text, we have added a number of items that may be of interest to Western readers. The book also includes a short autobiography, two poems, and a short introduction to the teachings of the Great Perfection. We are particularly pleased to have added this last essay, which was translated after consulting Lord Chuxi Rinpoche and included in the book with his generous consent.</t>
+  </si>
+  <si>
+    <t>寫於二零零零年八月的蓮師誕辰日，于多荷冬</t>
+  </si>
+  <si>
+    <t>Written in Dordogne, on the anniversary of Guru Rinpoche’s birth, August 2000</t>
+  </si>
+  <si>
+    <t>Written on August 2000, on the birthday of Master Lotus, in Doho Dong</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF839496"/>
       <name val="Courier New"/>
       <family val="3"/>
-      <color rgb="FF839496"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="新細明體"/>
+      <family val="3"/>
       <charset val="136"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="微軟正黑體"/>
+      <sz val="10"/>
+      <color rgb="FF839496"/>
+      <name val="Courier New"/>
+      <family val="2"/>
       <charset val="136"/>
-      <family val="2"/>
-      <color rgb="FF839496"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Courier New"/>
-      <charset val="136"/>
-      <family val="2"/>
-      <color rgb="FF839496"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -73,86 +152,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -418,157 +438,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>本書主要內容是怙主 敦珠仁波切的一系列開示。這當中最早的乃紀錄於一九六二年，其餘大部分開示則是於一九七零年間分別在東、西方國家所講授。這些談話經由錄音、繕寫後，推測是在加德滿都以小量印行。在敦珠仁波切佛母敦珠．桑嫞．仁增．旺嫫的囑咐下，將其中一本交付蓮師翻譯小組以利後續翻譯。感恩佛母仁慈的允諾，讓西方讀者得以接觸這些甚妙法教。</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>The main part of this book consists of a series of discourses given by Kyabje Dudjom Rinpoche.1 One of them dates from as early as 1962, but on the whole, they were delivered during the 1970s, some in the East and some in the West. The talks were recorded, and were later transcribed and published in a small volume, probably in Kathmandu. A copy of this book was given to Padmakara with a request from Dudjom Rinpoche’s consort, Sangyum Rigdzin Wangmo, for it to be translated. Thus it is thanks to her, and with her gracious permission, that these wonderful teachings are being made available to Western readers.</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>The main content of this book is a series of teachings by Lord Dhondup Rinpoche. The earliest of these was recorded in 1962, while most of the remaining lectures were taught in East and West in 1970. These conversations were recorded and written and presumably printed in small quantities in Kathmandu. In Dundrup Rinpoche Buddha Dundrup. SANG Yan. REN Zeng. Under Wang's instructions, one of them was handed over to the Lianshi translation team for subsequent translation. Thanks to the Mother Buddha's kind promise, Western readers have been exposed to these wonderful teachings.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>在朗達瑪滅法後所興起的其他三個藏傳佛教宗派，主要以推派特定領袖或高僧的方式建構組織。與此有別的寧瑪派，是早在佛教傳入西藏之際就已經創建的傳承，並且未形成單一化的實體組織。那些繁複的機構與複雜的行政系統，對寧瑪精神來說是相當陌生的。正如敦珠仁波切所言，如此的寧瑪傳統形成一種鬆散、去中心化的風格，並以六大寺和無數分支寺院的法教為根本，提供了豐富而多元的法教與實修，如此狀態至少維持到中國入侵之前。而後來災難降臨，寺廟被毀，對於能夠逃至印度的人們來說，為了保存法教傳統的完整性，認為必須提名一位領袖好讓顛沛四散的倖存者得以團結。這對寧瑪派來說是一個全新的挑戰，但顯然不是問題。而身為一位博學、具證量的上師，同時兼具「伏藏師」、寧瑪派法教毋庸置疑的權威，以及眾所公認為蓮花生大士真實示現之種種身分的敦珠仁波切，成為各方認定共舉的人選。他是普世景仰崇敬的對象，並由達賴喇嘛尊者認證為合適的寧瑪派領袖。</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Unlike the other three schools of Tibetan Buddhism, which sprang up in the period following the persecution of King Langdarma and which are organized, in the main, around a particular leader or hierarch, the Nyingmapas, whose tradition goes back to the foundation of Buddhism in Tibet, did not form a single monolithic body. Elaborate institutions and complicated administration are somewhat foreign to the Nyingma spirit. The tradition evolved in a loose, uncentralized manner, producing a wide spectrum of teaching and practice, principally associated, as Dudjom Rinpoche says, with six great monasteries and their innumerable branch monasteries. This at least was the situation before the Chinese invasion. But then disaster struck; the monasteries were destroyed and those who were able escaped to India. As a means of preserving the integrity of the tradition, it was thought necessary to nominate a single leader around whom the scattered remnants could rally. This was a new departure for the Nyingmapas, and yet it posed no problem. As a master of immense learning and realization, as a tertön, as an unquestioned authority on the Nyingma teachings and especially the Great Perfection, and as the acknowledged representative of Guru Padmasambhava himself, Dudjom Rinpoche was the unanimous choice. He was the object of spontaneous and universal veneration, and was duly recognized by the Dalai Lama as the leader of the Nyingmapas.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>The other three Tibetan Buddhist sects that emerged after the destruction of Randama mainly structured their organizations by appointing specific leaders or monks. The Nyingma school, on the other hand, was created as early as the introduction of Buddhism into Tibet and did not form a single entity. The complex institutions and complex administrative systems are quite foreign to the Nyingma spirit. As Dundup Rinpoche said, this Nyingma tradition developed a loose, decentralized style and provided a rich and diverse range of teachings and practices based on the teachings of the six great monasteries and countless branch monasteries, at least until the Chinese invasion. When disaster struck and the temple was destroyed, those who were able to flee to India felt that a leader must be nominated to preserve the integrity of the Buddhist tradition so that the scattered survivors could be united. This is a whole new challenge for the Nyingma school, but it is clearly not a problem. As a learned and proven guru, as well as the unquestioned authority of the "Fuzang Master", the Nyingma teachings, and the various identities recognized by the many as the true manifestations of Padmasambhava, Dundrup Rinpoche became a candidate for the common election. He is the object of universal admiration and reverence and has been certified by His Holiness the Dalai Lama as a suitable leader of the Nyingma sect.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>對於西方剛開始修行的初學者來說，想當然只能間接而隱約瞥見敦珠仁波切的修證威德，以及他身為大圓滿上師之成就，這份成就是指，仁波切的諸多弟子本身同時也是大成就者。儘管有著謙遜和悠然自在的風度舉止，但凡是與他相處之人，都能立即感受到偉大上師的存在，和佛法的真正體現。如同我們常聽到很多上師和堪布所說的：「他，就是蓮花生大士。」</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>It was only indirectly, of course, that we Westerners, beginners in the practice, could vaguely glimpse the extent of his spiritual authority and his accomplishment as a master of the Great Perfection—the revered guru of many disciples who were themselves accomplished masters. But despite the humility and relaxed lightheartedness of Rinpoche’s bearing, no one, when with him, could be unaware of being in the presence of a very great master, an embodiment of the teachings. As we often heard from the mouths of lamas and khenpos alike, “He simply was Guru Rinpoche.”</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>For beginners just beginning their practice in the West, of course, one can only get an indirect glimpse of Dunddrup Rinpoche's practice of Weed, and his achievements as a great perfection guru, which means that many of Rinpoche's disciples are themselves great achievers. Despite his humble and leisurely demeanor, anyone who interacts with him immediately feels the presence of the great Guru and the true embodiment of the Dharma. As we often hear many Gurus and Khenpos say, "He is Master Padmasambhava."</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>敦珠仁波切除了孜孜不倦地為印度、尼波爾和不丹的藏人們保存與實修眾多法教外，更為人稱道的是他對西方與東方的「外國」弟子們所投注的充沛關注與慈悲。多年來，他不僅到過南亞與遠東地區的國家傳法，也曾造訪歐洲和美國。正如蓮花生大士在西藏的佛行事業，他依循著傳統的嚴格標準，在「偏遠蠻荒地區」奠立了佛法。最後，仁波切選擇法國的多荷冬做為永久的居所，且在一九八七年一月於許多神奇徵兆中圓寂，降下一股至今仍可親掬的加持清流。</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>All the more amazing then, that in addition to laboring tirelessly for the preservation and practice of the teachings among Tibetans in India, Nepal, and Bhutan, Dudjom Rinpoche took such a lively and compassionate interest in “foreign” disciples, both Eastern and Western. As the years passed, he traveled not only to the countries of South Asia and the Far East, but also to Europe and America. Like Guru Padmasambhava in Tibet, he established the Dharma in “distant barbarous regions,” and according to the exacting standards of an authentic tradition. Finally, it was in Dordogne, France, that he chose to reside on a permanent basis. There, in January 1987, he passed away amid many marvelous signs, letting fall a stream of blessings that is still palpable.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Dundrup Rinpoche has worked tirelessly to preserve and practice many teachings for Tibetans in India, Nepal and Bhutan, and is better known for his dedication and compassion to foreign disciples in the West and the East. Over the years, he has not only traveled to countries in South Asia and the Far East, but also visited Europe and the United States. Like Padmasambhava's Buddhist practice in Tibet, he followed the traditional strict standards and established the Dharma in remote and barren areas. In the end, Rinpoche chose Dohodon in France as his permanent residence, and passed away in January 1987 amid many miraculous signs, descending a stream of blessings that is still amiable to this day.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>對西方人來說，敦珠仁波切儼然是位真正的慈父，但在必要時他絕不華美其詞，而是以必要且刻畫生動的話語，嚴正地指明要點。他親自體現了溫煦與仁慈，其存在是無盡的啟發之源、其著作具備了洞見與優雅。而正如我們希望能在此書傳達給讀者的，他的開示有著來自真實博達所展現的簡潔精鍊與直接，既可親又清晰易懂。就如在仁波切簡略自傳中所流露的，他是一位偉大謙遜之人。而仁波切在自身修持與佛行事業中，則將個人成就藏鋒於風趣幽默的面紗之後。</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>For us Westerners, he was indeed a loving father. And although, as occasion required, he did not mince his words, and could speak sternly and to the point in appropriately colorful and graphic language, he was the personification of gentle kindness. His presence was a source of endless inspiration; his writings, the pattern of clarity and elegance. His oral teachings, as we hope this book will show, had the simple, uncluttered directness of true mastery, so accessible and clear. He was nevertheless, and as his brief autobiography indicates, a person of great modesty. Matter-of-fact about his training and work, he concealed his personal attainments beneath a veil of playful humor.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>To Westerners, Dundrup Rinpoche is a true father, but when necessary, he does not speak boldly, but solemnly points out the main points with necessary and vivid words. He personally embodies gentleness and benevolence, his existence is an endless source of inspiration, and his writings are insightful and elegant. And as we hope to convey to our readers in this book, his teachings are concise and direct from the real Boda, both amiable and clear to understand. As revealed in Rinpoche's brief autobiography, he was a great and humble man. In his own practice and Buddhist practice, Rinpoche hid his personal achievements behind a veil of humor.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>對蓮師翻譯小組的成員來說，敦珠仁波切具有非比尋常的地位。他不僅在一九八零年於法國鹿吉哈爾成立個人的佛法中心，也在同一年於其親自創辦指導的香特鹿佛學中心加持首次舉辦的三年閉關，並給予許多灌頂和法要教學。</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>Dudjom Rinpoche holds a very special place for the members of the Padmakara Translation Group. Not only did he found his own teaching center at Laugeral, Dordogne, in 1980, but in the same year he gave his blessing to the first three-year retreat at Chanteloube, which he personally inaugurated and guided, giving many empowerments and essential teachings.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>For the members of the Lotus Translation Team, Dundrup Rinpoche has an extraordinary position. Not only did he set up his own Dharma Center in Rangerihar, France, in 1980, but he also blessed the first three-year retreat at the Chanter Deer Buddhist Center he founded and directed in the same year, and gave many empowerments and teachings.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>能參與這項翻譯是無上的榮幸，縱然成果鈍拙且未盡完美，仍願獻此綿薄之力以表達我們的深切感激。在原先開示的繕寫文稿當中，我們增加了西方讀者可能會有興趣的若干項目。書中還有一篇簡短自傳、兩首詩文以及大圓滿法教的簡短介紹。我們對於能夠加上最後這一篇特別感到欣喜，該篇短文是在請示怙主楚璽仁波切後翻譯而成，並在他的藹然允諾下收錄書中。</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>Working on this translation has been a great privilege and it is offered as a humble gesture of deep gratitude, however clumsy and imperfect. To the oral teachings contained in the original collection of transcripts, we have added a number of items that will perhaps be of interest to Western readers. These are a short autobiography, two poems, and a brief introduction to the Great Perfection. We are especially pleased to include this last item, which was translated in consultation with Kyabje Trulshik Rinpoche. It is included with his gracious permission.</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>It is a great privilege to participate in this translation, and even though the results are sluggish and imperfect, we would like to express our deep gratitude for this modest effort. In our original text, we have added a number of items that may be of interest to Western readers. The book also includes a short autobiography, two poems, and a short introduction to the teachings of the Great Perfection. We are particularly pleased to have added this last essay, which was translated after consulting Lord Chuxi Rinpoche and included in the book with his generous consent.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>寫於二零零零年八月的蓮師誕辰日，于多荷冬</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>Written in Dordogne, on the anniversary of Guru Rinpoche’s birth, August 2000</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Written on August 2000, on the birthday of Master Lotus, in Doho Dong</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>